--- a/data/strategies/中信场外策略结果.xlsx
+++ b/data/strategies/中信场外策略结果.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="178">
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF联接A</t>
   </si>
@@ -29,9 +32,6 @@
     <t>招商中证白酒A</t>
   </si>
   <si>
-    <t>汇添富中证主要消费ETF联接</t>
-  </si>
-  <si>
     <t>景气轮动</t>
   </si>
   <si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>2.58%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>19.04%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>8.83%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>21.69%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>19.96%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>28.99%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>3.40%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>13.18%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>9.30%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>19.34%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>18.07%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>27.35%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -137,6 +134,9 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>000248.OF</t>
+  </si>
+  <si>
     <t>004432.OF</t>
   </si>
   <si>
@@ -146,79 +146,76 @@
     <t>161725.OF</t>
   </si>
   <si>
-    <t>000248.OF</t>
-  </si>
-  <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>15.83%</t>
-  </si>
-  <si>
-    <t>-4.41%</t>
-  </si>
-  <si>
-    <t>-5.98%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>29.61%</t>
-  </si>
-  <si>
-    <t>21.82%</t>
-  </si>
-  <si>
-    <t>6.46%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>13.84%</t>
-  </si>
-  <si>
-    <t>4.48%</t>
-  </si>
-  <si>
-    <t>-2.83%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>34.71%</t>
-  </si>
-  <si>
-    <t>33.34%</t>
-  </si>
-  <si>
-    <t>16.54%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>28.49%</t>
-  </si>
-  <si>
-    <t>32.40%</t>
-  </si>
-  <si>
-    <t>20.58%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>36.05%</t>
-  </si>
-  <si>
-    <t>41.12%</t>
-  </si>
-  <si>
-    <t>28.64%</t>
+    <t>-9.18%</t>
+  </si>
+  <si>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>23.45%</t>
+  </si>
+  <si>
+    <t>-9.08%</t>
+  </si>
+  <si>
+    <t>-3.54%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>29.49%</t>
+  </si>
+  <si>
+    <t>9.63%</t>
+  </si>
+  <si>
+    <t>-8.61%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>20.84%</t>
+  </si>
+  <si>
+    <t>-1.77%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>37.26%</t>
+  </si>
+  <si>
+    <t>29.77%</t>
+  </si>
+  <si>
+    <t>20.31%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>30.09%</t>
+  </si>
+  <si>
+    <t>30.75%</t>
+  </si>
+  <si>
+    <t>28.26%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>36.31%</t>
+  </si>
+  <si>
+    <t>40.62%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,304 +230,301 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
   </si>
   <si>
     <t>600519.SH</t>
   </si>
   <si>
+    <t>300274.SZ</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
     <t>000568.SZ</t>
   </si>
   <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>300274.SZ</t>
-  </si>
-  <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
     <t>600438.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
     <t>002304.SZ</t>
   </si>
   <si>
-    <t>603799.SH</t>
+    <t>002129.SZ</t>
   </si>
   <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
     <t>600089.SH</t>
   </si>
   <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
     <t>600887.SH</t>
   </si>
   <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
+    <t>000799.SZ</t>
+  </si>
+  <si>
+    <t>603806.SH</t>
   </si>
   <si>
     <t>601877.SH</t>
   </si>
   <si>
-    <t>600547.SH</t>
-  </si>
-  <si>
-    <t>4.11%</t>
-  </si>
-  <si>
-    <t>3.95%</t>
-  </si>
-  <si>
-    <t>3.91%</t>
-  </si>
-  <si>
-    <t>3.90%</t>
-  </si>
-  <si>
-    <t>3.86%</t>
-  </si>
-  <si>
-    <t>3.72%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>3.56%</t>
-  </si>
-  <si>
-    <t>3.34%</t>
-  </si>
-  <si>
-    <t>2.90%</t>
-  </si>
-  <si>
-    <t>2.57%</t>
-  </si>
-  <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>2.07%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.33%</t>
+    <t>300316.SZ</t>
+  </si>
+  <si>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>300724.SZ</t>
+  </si>
+  <si>
+    <t>603369.SH</t>
+  </si>
+  <si>
+    <t>431.03%</t>
+  </si>
+  <si>
+    <t>410.04%</t>
+  </si>
+  <si>
+    <t>377.85%</t>
+  </si>
+  <si>
+    <t>360.62%</t>
+  </si>
+  <si>
+    <t>356.00%</t>
+  </si>
+  <si>
+    <t>349.54%</t>
+  </si>
+  <si>
+    <t>336.24%</t>
+  </si>
+  <si>
+    <t>311.31%</t>
+  </si>
+  <si>
+    <t>288.35%</t>
+  </si>
+  <si>
+    <t>198.53%</t>
+  </si>
+  <si>
+    <t>167.94%</t>
+  </si>
+  <si>
+    <t>154.60%</t>
+  </si>
+  <si>
+    <t>144.90%</t>
+  </si>
+  <si>
+    <t>136.65%</t>
+  </si>
+  <si>
+    <t>126.26%</t>
+  </si>
+  <si>
+    <t>114.25%</t>
+  </si>
+  <si>
+    <t>112.46%</t>
+  </si>
+  <si>
+    <t>110.45%</t>
+  </si>
+  <si>
+    <t>85.17%</t>
+  </si>
+  <si>
+    <t>84.68%</t>
+  </si>
+  <si>
+    <t>五粮液</t>
   </si>
   <si>
     <t>贵州茅台</t>
   </si>
   <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
     <t>泸州老窖</t>
   </si>
   <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
     <t>通威股份</t>
   </si>
   <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
     <t>洋河股份</t>
   </si>
   <si>
-    <t>华友钴业</t>
+    <t>中环股份</t>
   </si>
   <si>
     <t>先导智能</t>
   </si>
   <si>
-    <t>中环股份</t>
-  </si>
-  <si>
     <t>特变电工</t>
   </si>
   <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
     <t>伊利股份</t>
   </si>
   <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>福斯特</t>
   </si>
   <si>
     <t>正泰电器</t>
   </si>
   <si>
-    <t>山东黄金</t>
+    <t>晶盛机电</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>捷佳伟创</t>
+  </si>
+  <si>
+    <t>今世缘</t>
+  </si>
+  <si>
+    <t>酒类</t>
   </si>
   <si>
     <t>茅台酒</t>
   </si>
   <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
     <t>中高档酒类</t>
   </si>
   <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>白酒</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
     <t>配合饲料</t>
   </si>
   <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>新能源材料</t>
   </si>
   <si>
     <t>锂电池设备</t>
   </si>
   <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
     <t>新能源产品及集成工程</t>
   </si>
   <si>
-    <t>其他业务</t>
-  </si>
-  <si>
     <t>液体乳</t>
   </si>
   <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>精炼金属贸易</t>
+    <t>酒鬼系列</t>
+  </si>
+  <si>
+    <t>EVA胶膜</t>
   </si>
   <si>
     <t>太阳能电池组件</t>
   </si>
   <si>
-    <t>外购合质金</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>29.00%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>-10.07%</t>
-  </si>
-  <si>
-    <t>-8.67%</t>
-  </si>
-  <si>
-    <t>-16.68%</t>
+    <t>晶体硅生长设备</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>刻蚀设备</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>36.65%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>53.73%</t>
+  </si>
+  <si>
+    <t>57.25%</t>
+  </si>
+  <si>
+    <t>-7.51%</t>
+  </si>
+  <si>
+    <t>75.60%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>-15.12%</t>
+  </si>
+  <si>
+    <t>-3.29%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -542,34 +536,19 @@
     <t>食品饮料</t>
   </si>
   <si>
-    <t>太阳能光伏</t>
+    <t>光伏太阳能</t>
   </si>
   <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>有色金属</t>
-  </si>
-  <si>
     <t>饲料养殖</t>
   </si>
   <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>34.80%</t>
-  </si>
-  <si>
-    <t>25.37%</t>
-  </si>
-  <si>
-    <t>17.18%</t>
-  </si>
-  <si>
-    <t>13.28%</t>
-  </si>
-  <si>
-    <t>6.36%</t>
+    <t>35.67%</t>
+  </si>
+  <si>
+    <t>30.20%</t>
   </si>
   <si>
     <t>3.01%</t>
@@ -936,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,19 +978,19 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.03771535910305</v>
+      </c>
+      <c r="C3">
         <v>1.053925925925926</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.054286865447435</v>
       </c>
-      <c r="D3">
-        <v>1.032805271274359</v>
-      </c>
       <c r="E3">
-        <v>1.03771535910305</v>
+        <v>1.032806243888038</v>
       </c>
       <c r="F3">
-        <v>1.047885384424741</v>
+        <v>1.044989140690946</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1025,19 +1004,19 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.088139473452496</v>
+      </c>
+      <c r="C4">
         <v>1.065283950617284</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.055649694073586</v>
       </c>
-      <c r="D4">
-        <v>1.085658208327492</v>
-      </c>
       <c r="E4">
-        <v>1.088139473452496</v>
+        <v>1.085650497259996</v>
       </c>
       <c r="F4">
-        <v>1.069237559747858</v>
+        <v>1.074825656247593</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1051,19 +1030,19 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.09644565759737</v>
+      </c>
+      <c r="C5">
         <v>1.070320987654321</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.054249203785171</v>
       </c>
-      <c r="D5">
-        <v>1.088812561334642</v>
-      </c>
       <c r="E5">
-        <v>1.09644565759737</v>
+        <v>1.088805653449453</v>
       </c>
       <c r="F5">
-        <v>1.072378979175358</v>
+        <v>1.079601500952745</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1077,19 +1056,19 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.110211029908133</v>
+      </c>
+      <c r="C6">
         <v>1.109135802469136</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.096142342393262</v>
       </c>
-      <c r="D6">
-        <v>1.104584326370391</v>
-      </c>
       <c r="E6">
-        <v>1.110211029908133</v>
+        <v>1.104581434396738</v>
       </c>
       <c r="F6">
-        <v>1.104274379615239</v>
+        <v>1.10660598815393</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1103,19 +1082,19 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.080948607320008</v>
+      </c>
+      <c r="C7">
         <v>1.105481481481482</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.072662407051975</v>
       </c>
-      <c r="D7">
-        <v>1.071568764895556</v>
-      </c>
       <c r="E7">
-        <v>1.080948607320008</v>
+        <v>1.071572227245051</v>
       </c>
       <c r="F7">
-        <v>1.085007664446423</v>
+        <v>1.086130130036701</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1129,19 +1108,19 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.047577118370462</v>
+      </c>
+      <c r="C8">
         <v>1.064395061728395</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.028778210639819</v>
       </c>
-      <c r="D8">
-        <v>1.036800785083415</v>
-      </c>
       <c r="E8">
-        <v>1.047577118370462</v>
+        <v>1.036791704337879</v>
       </c>
       <c r="F8">
-        <v>1.045313484568684</v>
+        <v>1.048245626587648</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1155,19 +1134,19 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.069736726248129</v>
+      </c>
+      <c r="C9">
         <v>1.087012345679012</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.065146709907584</v>
       </c>
-      <c r="D9">
-        <v>1.068484508621898</v>
-      </c>
       <c r="E9">
-        <v>1.069736726248129</v>
+        <v>1.068490875878739</v>
       </c>
       <c r="F9">
-        <v>1.073889115553921</v>
+        <v>1.074474762653181</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1181,19 +1160,19 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.058201989962138</v>
+      </c>
+      <c r="C10">
         <v>1.054716049382716</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.05656533971889</v>
       </c>
-      <c r="D10">
-        <v>1.058600869199495</v>
-      </c>
       <c r="E10">
-        <v>1.058201989962138</v>
+        <v>1.058601029577283</v>
       </c>
       <c r="F10">
-        <v>1.056542490659027</v>
+        <v>1.056847423817292</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1207,19 +1186,19 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.032608376625283</v>
+      </c>
+      <c r="C11">
         <v>1.036444444444445</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.028610393875685</v>
       </c>
-      <c r="D11">
-        <v>1.025445114257676</v>
-      </c>
       <c r="E11">
-        <v>1.032608376625283</v>
+        <v>1.025444212779305</v>
       </c>
       <c r="F11">
-        <v>1.031411367085775</v>
+        <v>1.032032524817336</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1233,19 +1212,19 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.013354465674621</v>
+      </c>
+      <c r="C12">
         <v>1.045925925925926</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.0260168339186</v>
       </c>
-      <c r="D12">
-        <v>0.9936912939857002</v>
-      </c>
       <c r="E12">
-        <v>1.013354465674621</v>
+        <v>0.9936896876210861</v>
       </c>
       <c r="F12">
-        <v>1.025362920351906</v>
+        <v>1.022947649938975</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1259,19 +1238,19 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.011534736285991</v>
+      </c>
+      <c r="C13">
         <v>1.060938271604938</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.045476823103116</v>
       </c>
-      <c r="D13">
-        <v>0.975396046544231</v>
-      </c>
       <c r="E13">
-        <v>1.011534736285991</v>
+        <v>0.9753860914810782</v>
       </c>
       <c r="F13">
-        <v>1.033569943136694</v>
+        <v>1.027473820873259</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1285,19 +1264,19 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>0.9922808253353291</v>
+      </c>
+      <c r="C14">
         <v>1.025975308641975</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.01723215267869</v>
       </c>
-      <c r="D14">
-        <v>0.9556988644329173</v>
-      </c>
       <c r="E14">
-        <v>0.9922808253353291</v>
+        <v>0.9556986549070982</v>
       </c>
       <c r="F14">
-        <v>1.005934864134</v>
+        <v>1.001480915717519</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1311,19 +1290,19 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>0.9986205277215228</v>
+      </c>
+      <c r="C15">
         <v>1.05441975308642</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.051551637967054</v>
       </c>
-      <c r="D15">
-        <v>0.9630590214496003</v>
-      </c>
       <c r="E15">
-        <v>0.9986205277215228</v>
+        <v>0.9630606860158312</v>
       </c>
       <c r="F15">
-        <v>1.029191882191746</v>
+        <v>1.019900531401012</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1337,19 +1316,19 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.019840920430865</v>
+      </c>
+      <c r="C16">
         <v>1.089777777777778</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.096222028615883</v>
       </c>
-      <c r="D16">
-        <v>0.9917285854479181</v>
-      </c>
       <c r="E16">
-        <v>1.019840920430865</v>
+        <v>0.9917338598077385</v>
       </c>
       <c r="F16">
-        <v>1.064186682357685</v>
+        <v>1.050885301203058</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1363,19 +1342,19 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.018725602418479</v>
+      </c>
+      <c r="C17">
         <v>1.099555555555556</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.1325318961628</v>
       </c>
-      <c r="D17">
-        <v>0.9842983316977428</v>
-      </c>
       <c r="E17">
-        <v>1.018725602418479</v>
+        <v>0.9842980238758603</v>
       </c>
       <c r="F17">
-        <v>1.078083363751789</v>
+        <v>1.058496974961995</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1389,19 +1368,19 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.055443045405183</v>
+      </c>
+      <c r="C18">
         <v>1.114567901234568</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.132837411620351</v>
       </c>
-      <c r="D18">
-        <v>1.046824617972802</v>
-      </c>
       <c r="E18">
-        <v>1.055443045405183</v>
+        <v>1.046829160285625</v>
       </c>
       <c r="F18">
-        <v>1.099663596711837</v>
+        <v>1.086303027209656</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1415,19 +1394,19 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.047048809838279</v>
+      </c>
+      <c r="C19">
         <v>1.095308641975309</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.116352384129589</v>
       </c>
-      <c r="D19">
-        <v>1.023342212252909</v>
-      </c>
       <c r="E19">
-        <v>1.047048809838279</v>
+        <v>1.023340775319667</v>
       </c>
       <c r="F19">
-        <v>1.082415743679416</v>
+        <v>1.070497818505994</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1441,19 +1420,19 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.038419770479293</v>
+      </c>
+      <c r="C20">
         <v>1.088987654320988</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.160845669263501</v>
       </c>
-      <c r="D20">
-        <v>0.9939015841861768</v>
-      </c>
       <c r="E20">
-        <v>1.038419770479293</v>
+        <v>0.9938926508847353</v>
       </c>
       <c r="F20">
-        <v>1.088667896845894</v>
+        <v>1.067960470713345</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1467,19 +1446,19 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.020017023274926</v>
+      </c>
+      <c r="C21">
         <v>1.051160493827161</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.101433242986627</v>
       </c>
-      <c r="D21">
-        <v>0.981143978690593</v>
-      </c>
       <c r="E21">
-        <v>1.020017023274926</v>
+        <v>0.9811428676864034</v>
       </c>
       <c r="F21">
-        <v>1.051059103411132</v>
+        <v>1.037313809137488</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1493,19 +1472,19 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.018402747204368</v>
+      </c>
+      <c r="C22">
         <v>1.039111111111111</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.078692635912157</v>
       </c>
-      <c r="D22">
-        <v>0.9991588391980932</v>
-      </c>
       <c r="E22">
-        <v>1.018402747204368</v>
+        <v>0.9991512445338303</v>
       </c>
       <c r="F22">
-        <v>1.042164009385196</v>
+        <v>1.03200784098974</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1519,19 +1498,19 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.021543247923454</v>
+      </c>
+      <c r="C23">
         <v>1.05037037037037</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.049587545687988</v>
       </c>
-      <c r="D23">
-        <v>0.9969858404598345</v>
-      </c>
       <c r="E23">
-        <v>1.021543247923454</v>
+        <v>0.9969924534568335</v>
       </c>
       <c r="F23">
-        <v>1.036547115586204</v>
+        <v>1.031632626375092</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1545,19 +1524,19 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.051333979043761</v>
+      </c>
+      <c r="C24">
         <v>1.079506172839506</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.068398026010979</v>
       </c>
-      <c r="D24">
-        <v>1.040515911958503</v>
-      </c>
       <c r="E24">
-        <v>1.051333979043761</v>
+        <v>1.040518847906711</v>
       </c>
       <c r="F24">
-        <v>1.064758679364429</v>
+        <v>1.061661874108335</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1571,19 +1550,19 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.057116022423762</v>
+      </c>
+      <c r="C25">
         <v>1.085037037037037</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.065269039940615</v>
       </c>
-      <c r="D25">
-        <v>1.040095331557549</v>
-      </c>
       <c r="E25">
-        <v>1.057116022423762</v>
+        <v>1.040094470173626</v>
       </c>
       <c r="F25">
-        <v>1.066491249179912</v>
+        <v>1.064866649015151</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1597,19 +1576,19 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.059874966980717</v>
+      </c>
+      <c r="C26">
         <v>1.041679012345679</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.060847876045505</v>
       </c>
-      <c r="D26">
-        <v>1.045843263703911</v>
-      </c>
       <c r="E26">
-        <v>1.059874966980717</v>
+        <v>1.045832795173165</v>
       </c>
       <c r="F26">
-        <v>1.051694171355511</v>
+        <v>1.051713873598598</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1623,19 +1602,19 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.069208417715946</v>
+      </c>
+      <c r="C27">
         <v>0.992888888888889</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.05917508462052</v>
       </c>
-      <c r="D27">
-        <v>1.057339127996635</v>
-      </c>
       <c r="E27">
-        <v>1.069208417715946</v>
+        <v>1.057327896378028</v>
       </c>
       <c r="F27">
-        <v>1.03799034518957</v>
+        <v>1.040407187221516</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1649,19 +1628,19 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.089577646678994</v>
+      </c>
+      <c r="C28">
         <v>1.030518518518519</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.060683099236172</v>
       </c>
-      <c r="D28">
-        <v>1.05747932146362</v>
-      </c>
       <c r="E28">
-        <v>1.089577646678994</v>
+        <v>1.057475506024319</v>
       </c>
       <c r="F28">
-        <v>1.054666118787764</v>
+        <v>1.06002368084995</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1675,19 +1654,19 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.114848404801738</v>
+      </c>
+      <c r="C29">
         <v>1.078518518518519</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.097629640279896</v>
       </c>
-      <c r="D29">
-        <v>1.082223468386373</v>
-      </c>
       <c r="E29">
-        <v>1.114848404801738</v>
+        <v>1.082218572983745</v>
       </c>
       <c r="F29">
-        <v>1.0914309366647</v>
+        <v>1.094634523932203</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1701,19 +1680,19 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.151976754424584</v>
+      </c>
+      <c r="C30">
         <v>1.106172839506173</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.124629843281323</v>
       </c>
-      <c r="D30">
-        <v>1.135426889106967</v>
-      </c>
       <c r="E30">
-        <v>1.151976754424584</v>
+        <v>1.135431850471428</v>
       </c>
       <c r="F30">
-        <v>1.124648214897641</v>
+        <v>1.1296193130106</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1727,19 +1706,19 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.118106307416865</v>
+      </c>
+      <c r="C31">
         <v>1.177382716049383</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.115415402505215</v>
       </c>
-      <c r="D31">
-        <v>1.095752137950371</v>
-      </c>
       <c r="E31">
-        <v>1.118106307416865</v>
+        <v>1.095743306825101</v>
       </c>
       <c r="F31">
-        <v>1.133683849769105</v>
+        <v>1.133533627857533</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1753,19 +1732,19 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.135041530920724</v>
+      </c>
+      <c r="C32">
         <v>1.193679012345679</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.094467242854446</v>
       </c>
-      <c r="D32">
-        <v>1.089373335202579</v>
-      </c>
       <c r="E32">
-        <v>1.135041530920724</v>
+        <v>1.089377640828828</v>
       </c>
       <c r="F32">
-        <v>1.134053507249843</v>
+        <v>1.140162600394861</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1779,19 +1758,19 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.084118458513105</v>
+      </c>
+      <c r="C33">
         <v>1.248592592592593</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.059313993666311</v>
       </c>
-      <c r="D33">
-        <v>1.003294546474134</v>
-      </c>
       <c r="E33">
-        <v>1.084118458513105</v>
+        <v>1.003284314629961</v>
       </c>
       <c r="F33">
-        <v>1.118518245214259</v>
+        <v>1.120964552318896</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1805,19 +1784,19 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.074139297349652</v>
+      </c>
+      <c r="C34">
         <v>1.233283950617284</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.049910597181106</v>
       </c>
-      <c r="D34">
-        <v>1.006589092948268</v>
-      </c>
       <c r="E34">
-        <v>1.074139297349652</v>
+        <v>1.006587080465708</v>
       </c>
       <c r="F34">
-        <v>1.109107224678799</v>
+        <v>1.11151318161431</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1831,19 +1810,19 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.037363153414928</v>
+      </c>
+      <c r="C35">
         <v>1.182617283950617</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.015566538924763</v>
       </c>
-      <c r="D35">
-        <v>0.9510023832889387</v>
-      </c>
       <c r="E35">
-        <v>1.037363153414928</v>
+        <v>0.9509935974315922</v>
       </c>
       <c r="F35">
-        <v>1.06530714794452</v>
+        <v>1.067449598363578</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1857,19 +1836,19 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.027530744621526</v>
+      </c>
+      <c r="C36">
         <v>1.170172839506173</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.01096638361685</v>
       </c>
-      <c r="D36">
-        <v>0.9374036169914481</v>
-      </c>
       <c r="E36">
-        <v>1.027530744621526</v>
+        <v>0.9373950587670905</v>
       </c>
       <c r="F36">
-        <v>1.0556918416918</v>
+        <v>1.056997128201706</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1883,19 +1862,19 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.001085967538376</v>
+      </c>
+      <c r="C37">
         <v>1.12079012345679</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.004382151141824</v>
       </c>
-      <c r="D37">
-        <v>0.9111874386653581</v>
-      </c>
       <c r="E37">
-        <v>1.001085967538376</v>
+        <v>0.9111943465505471</v>
       </c>
       <c r="F37">
-        <v>1.028039863875727</v>
+        <v>1.02630009182303</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1909,19 +1888,19 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.011886941974113</v>
+      </c>
+      <c r="C38">
         <v>1.159308641975309</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.030001004310994</v>
       </c>
-      <c r="D38">
-        <v>0.9165147904107669</v>
-      </c>
       <c r="E38">
-        <v>1.011886941974113</v>
+        <v>0.9165082938170009</v>
       </c>
       <c r="F38">
-        <v>1.052251555537738</v>
+        <v>1.047787446314169</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1935,19 +1914,19 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>0.9921634234392885</v>
+      </c>
+      <c r="C39">
         <v>1.122864197530864</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.020928709569586</v>
       </c>
-      <c r="D39">
-        <v>0.891279966353568</v>
-      </c>
       <c r="E39">
-        <v>0.9921634234392885</v>
+        <v>0.8912854955071314</v>
       </c>
       <c r="F39">
-        <v>1.029448460634279</v>
+        <v>1.023396092992202</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1961,19 +1940,19 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.004901529159696</v>
+      </c>
+      <c r="C40">
         <v>1.161975308641976</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.015002036206762</v>
       </c>
-      <c r="D40">
-        <v>0.9129398570026636</v>
-      </c>
       <c r="E40">
-        <v>1.004901529159696</v>
+        <v>0.9129287598944591</v>
       </c>
       <c r="F40">
-        <v>1.046466105603292</v>
+        <v>1.04322695312285</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1987,19 +1966,19 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9637521645974583</v>
+      </c>
+      <c r="C41">
         <v>1.119012345679012</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.951174497796652</v>
       </c>
-      <c r="D41">
-        <v>0.8674470769662135</v>
-      </c>
       <c r="E41">
-        <v>0.9637521645974583</v>
+        <v>0.8674465376312342</v>
       </c>
       <c r="F41">
-        <v>0.9964996566617653</v>
+        <v>0.9970222808828112</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2013,19 +1992,19 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9635760617533974</v>
+      </c>
+      <c r="C42">
         <v>1.084641975308642</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.9540098186036451</v>
       </c>
-      <c r="D42">
-        <v>0.8776812000560773</v>
-      </c>
       <c r="E42">
-        <v>0.9635760617533974</v>
+        <v>0.8776869568426298</v>
       </c>
       <c r="F42">
-        <v>0.9874089599427045</v>
+        <v>0.9877776807966425</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2039,19 +2018,19 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.915881541486895</v>
+      </c>
+      <c r="C43">
         <v>1.056197530864198</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.9020909090602025</v>
       </c>
-      <c r="D43">
-        <v>0.8151549137810177</v>
-      </c>
       <c r="E43">
-        <v>0.915881541486895</v>
+        <v>0.8151558204328654</v>
       </c>
       <c r="F43">
-        <v>0.9424181756028995</v>
+        <v>0.9432906196570858</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2065,19 +2044,19 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8903172786240497</v>
+      </c>
+      <c r="C44">
         <v>1.04</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.8718393055121925</v>
       </c>
-      <c r="D44">
-        <v>0.7889387354549277</v>
-      </c>
       <c r="E44">
-        <v>0.8903172786240497</v>
+        <v>0.7889366570105357</v>
       </c>
       <c r="F44">
-        <v>0.9183842131420548</v>
+        <v>0.9199359085484271</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2091,19 +2070,19 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9041120014088229</v>
+      </c>
+      <c r="C45">
         <v>1.039012345679012</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.8783817104609686</v>
       </c>
-      <c r="D45">
-        <v>0.8178886863872143</v>
-      </c>
       <c r="E45">
-        <v>0.9041120014088229</v>
+        <v>0.8178865988892374</v>
       </c>
       <c r="F45">
-        <v>0.92726027546933</v>
+        <v>0.9301564255958579</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2117,19 +2096,19 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9282967919931907</v>
+      </c>
+      <c r="C46">
         <v>1.099950617283951</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.910932533157181</v>
       </c>
-      <c r="D46">
-        <v>0.8495023131922051</v>
-      </c>
       <c r="E46">
-        <v>0.9282967919931907</v>
+        <v>0.8494935144011662</v>
       </c>
       <c r="F46">
-        <v>0.9679277981740033</v>
+        <v>0.9690749108285159</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2143,19 +2122,19 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.927386927298876</v>
+      </c>
+      <c r="C47">
         <v>1.087901234567901</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.9275902751170354</v>
       </c>
-      <c r="D47">
-        <v>0.8528669563998317</v>
-      </c>
       <c r="E47">
-        <v>0.927386927298876</v>
+        <v>0.8528700850600587</v>
       </c>
       <c r="F47">
-        <v>0.969733101351995</v>
+        <v>0.9680949221182458</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2169,19 +2148,19 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8954242611018169</v>
+      </c>
+      <c r="C48">
         <v>1.089876543209876</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.8912915540710569</v>
       </c>
-      <c r="D48">
-        <v>0.8111593999719613</v>
-      </c>
       <c r="E48">
-        <v>0.8954242611018169</v>
+        <v>0.8111519087772386</v>
       </c>
       <c r="F48">
-        <v>0.9462705416119801</v>
+        <v>0.9450066794038459</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2195,19 +2174,19 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9092189838865898</v>
+      </c>
+      <c r="C49">
         <v>1.068246913580247</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.897361752707333</v>
       </c>
-      <c r="D49">
-        <v>0.8331697742885182</v>
-      </c>
       <c r="E49">
-        <v>0.9092189838865898</v>
+        <v>0.8331641972802923</v>
       </c>
       <c r="F49">
-        <v>0.9468274741095967</v>
+        <v>0.9471927177508803</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2221,19 +2200,19 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9246279827419214</v>
+      </c>
+      <c r="C50">
         <v>1.074172839506173</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.9007209027629924</v>
       </c>
-      <c r="D50">
-        <v>0.8435440908453665</v>
-      </c>
       <c r="E50">
-        <v>0.9246279827419214</v>
+        <v>0.8435337749321918</v>
       </c>
       <c r="F50">
-        <v>0.9542050554857887</v>
+        <v>0.9566525729889958</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2247,19 +2226,19 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9405652901294357</v>
+      </c>
+      <c r="C51">
         <v>1.074271604938271</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.9157457104830364</v>
       </c>
-      <c r="D51">
-        <v>0.8684284312351044</v>
-      </c>
       <c r="E51">
-        <v>0.9405652901294357</v>
+        <v>0.868424451537908</v>
       </c>
       <c r="F51">
-        <v>0.9659323941635635</v>
+        <v>0.9686899050070936</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2273,19 +2252,19 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9163804995450676</v>
+      </c>
+      <c r="C52">
         <v>1.053037037037037</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.89222859199089</v>
       </c>
-      <c r="D52">
-        <v>0.8452264124491798</v>
-      </c>
       <c r="E52">
-        <v>0.9163804995450676</v>
+        <v>0.8452312858645312</v>
       </c>
       <c r="F52">
-        <v>0.9431331684286373</v>
+        <v>0.9457524719136898</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2299,19 +2278,19 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9197851545302457</v>
+      </c>
+      <c r="C53">
         <v>1.056493827160494</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.9128444958409477</v>
       </c>
-      <c r="D53">
-        <v>0.8490817327912519</v>
-      </c>
       <c r="E53">
-        <v>0.9197851545302457</v>
+        <v>0.8490875878738676</v>
       </c>
       <c r="F53">
-        <v>0.9523096212701279</v>
+        <v>0.9520887093161912</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2325,19 +2304,19 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9179947756156263</v>
+      </c>
+      <c r="C54">
         <v>1.01758024691358</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.8981579393880301</v>
       </c>
-      <c r="D54">
-        <v>0.8570727604093648</v>
-      </c>
       <c r="E54">
-        <v>0.9179947756156263</v>
+        <v>0.8570769599793348</v>
       </c>
       <c r="F54">
-        <v>0.9352555473927908</v>
+        <v>0.9375334635864097</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2351,19 +2330,19 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9127410407678084</v>
+      </c>
+      <c r="C55">
         <v>0.977283950617284</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.8783354355934346</v>
       </c>
-      <c r="D55">
-        <v>0.8576335342773026</v>
-      </c>
       <c r="E55">
-        <v>0.9127410407678084</v>
+        <v>0.8576304961529237</v>
       </c>
       <c r="F55">
-        <v>0.9142390418381534</v>
+        <v>0.9192700363029078</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2377,19 +2356,19 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9112441665932904</v>
+      </c>
+      <c r="C56">
         <v>0.9830123456790123</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.8763398741526266</v>
       </c>
-      <c r="D56">
-        <v>0.8513248282630029</v>
-      </c>
       <c r="E56">
-        <v>0.9112441665932904</v>
+        <v>0.8513201837740096</v>
       </c>
       <c r="F56">
-        <v>0.9142402401525194</v>
+        <v>0.9192810002736879</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2403,19 +2382,19 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.930615479439993</v>
+      </c>
+      <c r="C57">
         <v>1.015012345679013</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.9085377806145685</v>
       </c>
-      <c r="D57">
-        <v>0.8823776812000559</v>
-      </c>
       <c r="E57">
-        <v>0.930615479439993</v>
+        <v>0.8823735631123494</v>
       </c>
       <c r="F57">
-        <v>0.9440655366392799</v>
+        <v>0.9468637087986133</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2429,19 +2408,19 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9376889436764404</v>
+      </c>
+      <c r="C58">
         <v>1.011950617283951</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0.9004560889225061</v>
       </c>
-      <c r="D58">
-        <v>0.8982195429692976</v>
-      </c>
       <c r="E58">
-        <v>0.9376889436764404</v>
+        <v>0.8982231488827795</v>
       </c>
       <c r="F58">
-        <v>0.944138619517517</v>
+        <v>0.9495400187915656</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2455,19 +2434,19 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9466408382495377</v>
+      </c>
+      <c r="C59">
         <v>1.025185185185185</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.9285429913222801</v>
       </c>
-      <c r="D59">
-        <v>0.9017944763774008</v>
-      </c>
       <c r="E59">
-        <v>0.9466408382495377</v>
+        <v>0.9017842315995351</v>
       </c>
       <c r="F59">
-        <v>0.9599739770127604</v>
+        <v>0.9621729878980535</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2481,19 +2460,19 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9374541398843592</v>
+      </c>
+      <c r="C60">
         <v>1.002074074074074</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0.9224742563679453</v>
       </c>
-      <c r="D60">
-        <v>0.8860227113416514</v>
-      </c>
       <c r="E60">
-        <v>0.9374541398843592</v>
+        <v>0.8860269018580363</v>
       </c>
       <c r="F60">
-        <v>0.945995370238899</v>
+        <v>0.9478215431124136</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2507,19 +2486,19 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9519532740453759</v>
+      </c>
+      <c r="C61">
         <v>1.010469135802469</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>0.9312822720757296</v>
       </c>
-      <c r="D61">
-        <v>0.9074723117902705</v>
-      </c>
       <c r="E61">
-        <v>0.9519532740453759</v>
+        <v>0.9074672029817148</v>
       </c>
       <c r="F61">
-        <v>0.9576878776207119</v>
+        <v>0.960512591374721</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2533,19 +2512,19 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.9774294854861907</v>
+      </c>
+      <c r="C62">
         <v>1.018666666666667</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>0.9289564814707436</v>
       </c>
-      <c r="D62">
-        <v>0.9508621898219544</v>
-      </c>
       <c r="E62">
-        <v>0.9774294854861907</v>
+        <v>0.9508644389910882</v>
       </c>
       <c r="F62">
-        <v>0.971070431977856</v>
+        <v>0.9786564769415071</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2559,19 +2538,19 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.969358105133398</v>
+      </c>
+      <c r="C63">
         <v>1.024</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>0.9500423679626594</v>
       </c>
-      <c r="D63">
-        <v>0.9374737137249403</v>
-      </c>
       <c r="E63">
-        <v>0.969358105133398</v>
+        <v>0.9374688635902356</v>
       </c>
       <c r="F63">
-        <v>0.9763012315393035</v>
+        <v>0.978941108951583</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2585,19 +2564,19 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9474920019958324</v>
+      </c>
+      <c r="C64">
         <v>1.035654320987654</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>0.9331814838379677</v>
       </c>
-      <c r="D64">
-        <v>0.8959764474975466</v>
-      </c>
       <c r="E64">
-        <v>0.9474920019958324</v>
+        <v>0.8959721017768512</v>
       </c>
       <c r="F64">
-        <v>0.9642446529687394</v>
+        <v>0.9657235482309541</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2611,19 +2590,19 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9584984297496405</v>
+      </c>
+      <c r="C65">
         <v>1.048098765432099</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>0.924964936373183</v>
       </c>
-      <c r="D65">
-        <v>0.9132903406701247</v>
-      </c>
       <c r="E65">
-        <v>0.9584984297496405</v>
+        <v>0.9132793328043988</v>
       </c>
       <c r="F65">
-        <v>0.9704371563693253</v>
+        <v>0.9750723631217715</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2637,19 +2616,19 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9408000939215169</v>
+      </c>
+      <c r="C66">
         <v>1.045728395061728</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>0.9092496929927127</v>
       </c>
-      <c r="D66">
-        <v>0.8874947427449881</v>
-      </c>
       <c r="E66">
-        <v>0.9408000939215169</v>
+        <v>0.887484547115154</v>
       </c>
       <c r="F66">
-        <v>0.9572687010585562</v>
+        <v>0.9614235519214842</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2663,19 +2642,19 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9315840450823281</v>
+      </c>
+      <c r="C67">
         <v>1.004543209876543</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>0.8843249628365525</v>
       </c>
-      <c r="D67">
-        <v>0.888406000280387</v>
-      </c>
       <c r="E67">
-        <v>0.9315840450823281</v>
+        <v>0.8884071074044688</v>
       </c>
       <c r="F67">
-        <v>0.933670286578935</v>
+        <v>0.9407386261770194</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2689,19 +2668,19 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.939684775909131</v>
+      </c>
+      <c r="C68">
         <v>0.9978271604938271</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>0.8787236772284079</v>
       </c>
-      <c r="D68">
-        <v>0.8963970278984998</v>
-      </c>
       <c r="E68">
-        <v>0.939684775909131</v>
+        <v>0.8963964795099361</v>
       </c>
       <c r="F68">
-        <v>0.932193545681535</v>
+        <v>0.9416706126338943</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2715,19 +2694,19 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9444982536467964</v>
+      </c>
+      <c r="C69">
         <v>1.020246913580247</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>0.891903035349833</v>
       </c>
-      <c r="D69">
-        <v>0.9077526987242394</v>
-      </c>
       <c r="E69">
-        <v>0.9444982536467964</v>
+        <v>0.9077439710685093</v>
       </c>
       <c r="F69">
-        <v>0.9468333594239497</v>
+        <v>0.9547526437804188</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2741,19 +2720,19 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9376889436764404</v>
+      </c>
+      <c r="C70">
         <v>1.035358024691358</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>0.8973868604821752</v>
       </c>
-      <c r="D70">
-        <v>0.9008832188420017</v>
-      </c>
       <c r="E70">
-        <v>0.9376889436764404</v>
+        <v>0.9008801225160065</v>
       </c>
       <c r="F70">
-        <v>0.9515237991697225</v>
+        <v>0.957196441192838</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2767,19 +2746,19 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9434709870564411</v>
+      </c>
+      <c r="C71">
         <v>1.029827160493827</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>0.8934466568434843</v>
       </c>
-      <c r="D71">
-        <v>0.9230337866255431</v>
-      </c>
       <c r="E71">
-        <v>0.9434709870564411</v>
+        <v>0.9230400206653505</v>
       </c>
       <c r="F71">
-        <v>0.9529519189837785</v>
+        <v>0.9603434003511107</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2793,19 +2772,19 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9591734906518741</v>
+      </c>
+      <c r="C72">
         <v>1.066666666666667</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>0.9234306599257733</v>
       </c>
-      <c r="D72">
-        <v>0.9344595541847749</v>
-      </c>
       <c r="E72">
-        <v>0.9591734906518741</v>
+        <v>0.934461317047069</v>
       </c>
       <c r="F72">
-        <v>0.979848236840219</v>
+        <v>0.9846711630221563</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2819,19 +2798,19 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9685362918611137</v>
+      </c>
+      <c r="C73">
         <v>1.057086419753086</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>0.9349364666335124</v>
       </c>
-      <c r="D73">
-        <v>0.9451142576755923</v>
-      </c>
       <c r="E73">
-        <v>0.9685362918611137</v>
+        <v>0.9451076627857632</v>
       </c>
       <c r="F73">
-        <v>0.9836907573786651</v>
+        <v>0.9883481391054777</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2845,19 +2824,19 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9749933961433477</v>
+      </c>
+      <c r="C74">
         <v>1.049876543209876</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>0.933751897579194</v>
       </c>
-      <c r="D74">
-        <v>0.9683162764615167</v>
-      </c>
       <c r="E74">
-        <v>0.9749933961433477</v>
+        <v>0.9683192796649261</v>
       </c>
       <c r="F74">
-        <v>0.9857422468722947</v>
+        <v>0.9917987581932772</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2871,19 +2850,19 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.97349652196883</v>
+      </c>
+      <c r="C75">
         <v>1.054024691358025</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>0.9361801740678118</v>
       </c>
-      <c r="D75">
-        <v>0.9681059862610401</v>
-      </c>
       <c r="E75">
-        <v>0.97349652196883</v>
+        <v>0.9680978651954907</v>
       </c>
       <c r="F75">
-        <v>0.987672266362035</v>
+        <v>0.9930228420959952</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2897,19 +2876,19 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>0.9871151419095419</v>
+      </c>
+      <c r="C76">
         <v>1.065086419753086</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>0.9450422615642414</v>
       </c>
-      <c r="D76">
-        <v>0.9790410766858265</v>
-      </c>
       <c r="E76">
-        <v>0.9871151419095419</v>
+        <v>0.9790394302267653</v>
       </c>
       <c r="F76">
-        <v>0.9984091051004849</v>
+        <v>1.004571145913279</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2923,19 +2902,19 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.968418889965073</v>
+      </c>
+      <c r="C77">
         <v>1.072987654320988</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>0.9400441536546279</v>
       </c>
-      <c r="D77">
-        <v>0.9650217299873826</v>
-      </c>
       <c r="E77">
-        <v>0.968418889965073</v>
+        <v>0.9650165138291789</v>
       </c>
       <c r="F77">
-        <v>0.9940480754673182</v>
+        <v>0.9976833586488789</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2949,19 +2928,19 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9759326113116727</v>
+      </c>
+      <c r="C78">
         <v>1.075259259259259</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>0.937905123235827</v>
       </c>
-      <c r="D78">
-        <v>0.9783401093509041</v>
-      </c>
       <c r="E78">
-        <v>0.9759326113116727</v>
+        <v>0.978338284406886</v>
       </c>
       <c r="F78">
-        <v>0.9975518377252963</v>
+        <v>1.002832805662572</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2975,19 +2954,19 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>0.9839746411904553</v>
+      </c>
+      <c r="C79">
         <v>1.075654320987654</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>0.9534557023978826</v>
       </c>
-      <c r="D79">
-        <v>1.002944062806673</v>
-      </c>
       <c r="E79">
-        <v>0.9839746411904553</v>
+        <v>1.002933741720021</v>
       </c>
       <c r="F79">
-        <v>1.00820443708663</v>
+        <v>1.012321562210135</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3001,19 +2980,19 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>0.9995010419418274</v>
+      </c>
+      <c r="C80">
         <v>1.085530864197531</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>0.9500112084259441</v>
       </c>
-      <c r="D80">
-        <v>1.001752418337305</v>
-      </c>
       <c r="E80">
-        <v>0.9995010419418274</v>
+        <v>1.001752864549698</v>
       </c>
       <c r="F80">
-        <v>1.012791013553779</v>
+        <v>1.020096611486388</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3027,19 +3006,19 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>0.992251474861319</v>
+      </c>
+      <c r="C81">
         <v>1.083358024691358</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>0.9729243892308588</v>
       </c>
-      <c r="D81">
-        <v>0.990116360577597</v>
-      </c>
       <c r="E81">
-        <v>0.992251474861319</v>
+        <v>0.9901101536985443</v>
       </c>
       <c r="F81">
-        <v>1.016497469688666</v>
+        <v>1.018774349184348</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3053,19 +3032,19 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.9657186463561387</v>
+      </c>
+      <c r="C82">
         <v>1.109135802469136</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>0.9686533653256675</v>
       </c>
-      <c r="D82">
-        <v>0.9599046684424504</v>
-      </c>
       <c r="E82">
-        <v>0.9657186463561387</v>
+        <v>0.9599055298263742</v>
       </c>
       <c r="F82">
-        <v>1.014489630338744</v>
+        <v>1.012571372275989</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3079,19 +3058,19 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.953127293005782</v>
+      </c>
+      <c r="C83">
         <v>1.136987654320988</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>0.9428060651827108</v>
       </c>
-      <c r="D83">
-        <v>0.9438525164727324</v>
-      </c>
       <c r="E83">
-        <v>0.953127293005782</v>
+        <v>0.9438529807922948</v>
       </c>
       <c r="F83">
-        <v>1.010703472543385</v>
+        <v>1.010567948133768</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3105,19 +3084,19 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9364268732940038</v>
+      </c>
+      <c r="C84">
         <v>1.191012345679012</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>0.952361065339775</v>
       </c>
-      <c r="D84">
-        <v>0.9278003645030142</v>
-      </c>
       <c r="E84">
-        <v>0.9364268732940038</v>
+        <v>0.9278004317582155</v>
       </c>
       <c r="F84">
-        <v>1.026820843329498</v>
+        <v>1.021645858015204</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3131,19 +3110,19 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9588212849637522</v>
+      </c>
+      <c r="C85">
         <v>1.144296296296296</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>0.9436933097688046</v>
       </c>
-      <c r="D85">
-        <v>0.9603953455768961</v>
-      </c>
       <c r="E85">
-        <v>0.9588212849637522</v>
+        <v>0.960385261176818</v>
       </c>
       <c r="F85">
-        <v>1.017150277003653</v>
+        <v>1.017789978871481</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3157,19 +3136,19 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9696516098734995</v>
+      </c>
+      <c r="C86">
         <v>1.149432098765432</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>0.9495191579640454</v>
       </c>
-      <c r="D86">
-        <v>0.9758867236786766</v>
-      </c>
       <c r="E86">
-        <v>0.9696516098734995</v>
+        <v>0.9758842740373084</v>
       </c>
       <c r="F86">
-        <v>1.025162060744491</v>
+        <v>1.026685706229806</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3183,19 +3162,19 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9675677262187785</v>
+      </c>
+      <c r="C87">
         <v>1.095111111111111</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>0.9310161634396796</v>
       </c>
-      <c r="D87">
-        <v>0.9777092387494742</v>
-      </c>
       <c r="E87">
-        <v>0.9675677262187785</v>
+        <v>0.9777109434101519</v>
       </c>
       <c r="F87">
-        <v>1.000543810932634</v>
+        <v>1.005299666211274</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3209,19 +3188,19 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9831821783921811</v>
+      </c>
+      <c r="C88">
         <v>1.100246913580247</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>0.9443479978125836</v>
       </c>
-      <c r="D88">
-        <v>0.9918687789149024</v>
-      </c>
       <c r="E88">
-        <v>0.9831821783921811</v>
+        <v>0.9918630182482426</v>
       </c>
       <c r="F88">
-        <v>1.011602197851106</v>
+        <v>1.016838239784859</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3235,19 +3214,19 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.003169851193097</v>
+      </c>
+      <c r="C89">
         <v>1.13037037037037</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>0.9721459919152964</v>
       </c>
-      <c r="D89">
-        <v>1.011215477358755</v>
-      </c>
       <c r="E89">
-        <v>1.003169851193097</v>
+        <v>1.011218333118069</v>
       </c>
       <c r="F89">
-        <v>1.037507682469029</v>
+        <v>1.041355085258381</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3261,19 +3240,19 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.001203369434416</v>
+      </c>
+      <c r="C90">
         <v>1.144098765432099</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>0.9680804182887734</v>
       </c>
-      <c r="D90">
-        <v>1.013108089163045</v>
-      </c>
       <c r="E90">
-        <v>1.001203369434416</v>
+        <v>1.013100356108272</v>
       </c>
       <c r="F90">
-        <v>1.04082150895079</v>
+        <v>1.044856565975807</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3287,19 +3266,19 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>0.9963018402747205</v>
+      </c>
+      <c r="C91">
         <v>1.150123456790124</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>0.9840320744505197</v>
       </c>
-      <c r="D91">
-        <v>1.004556287676994</v>
-      </c>
       <c r="E91">
-        <v>0.9963018402747205</v>
+        <v>1.004557447829216</v>
       </c>
       <c r="F91">
-        <v>1.045914150989347</v>
+        <v>1.046400637610302</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3313,19 +3292,19 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.007044113762437</v>
+      </c>
+      <c r="C92">
         <v>1.117037037037037</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>0.9736231566192596</v>
       </c>
-      <c r="D92">
-        <v>1.029230337866255</v>
-      </c>
       <c r="E92">
-        <v>1.007044113762437</v>
+        <v>1.029226709965496</v>
       </c>
       <c r="F92">
-        <v>1.037073518795683</v>
+        <v>1.041487448887936</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3339,19 +3318,19 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>0.9989433829356346</v>
+      </c>
+      <c r="C93">
         <v>1.123061728395062</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>0.9772662891192925</v>
       </c>
-      <c r="D93">
-        <v>1.032244497406421</v>
-      </c>
       <c r="E93">
-        <v>0.9989433829356346</v>
+        <v>1.032234256508663</v>
       </c>
       <c r="F93">
-        <v>1.039484863320127</v>
+        <v>1.041818710597099</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3365,19 +3344,19 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.006339702386194</v>
+      </c>
+      <c r="C94">
         <v>1.115358024691358</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>0.9756034056951414</v>
       </c>
-      <c r="D94">
-        <v>1.059442030001402</v>
-      </c>
       <c r="E94">
-        <v>1.006339702386194</v>
+        <v>1.059431333837666</v>
       </c>
       <c r="F94">
-        <v>1.042024838118412</v>
+        <v>1.046004378982367</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3391,19 +3370,19 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.037363153414928</v>
+      </c>
+      <c r="C95">
         <v>1.124345679012346</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>0.9845166094686035</v>
       </c>
-      <c r="D95">
-        <v>1.096453105285294</v>
-      </c>
       <c r="E95">
-        <v>1.037363153414928</v>
+        <v>1.09644445264498</v>
       </c>
       <c r="F95">
-        <v>1.059247694674373</v>
+        <v>1.067096121483891</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3417,19 +3396,19 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.032314871885181</v>
+      </c>
+      <c r="C96">
         <v>1.134123456790123</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>0.9717996341020328</v>
       </c>
-      <c r="D96">
-        <v>1.086990046263844</v>
-      </c>
       <c r="E96">
-        <v>1.032314871885181</v>
+        <v>1.086978984076609</v>
       </c>
       <c r="F96">
-        <v>1.055981166056902</v>
+        <v>1.064946269181178</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3443,19 +3422,19 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.033518241319597</v>
+      </c>
+      <c r="C97">
         <v>1.134320987654321</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>0.9828638873748538</v>
       </c>
-      <c r="D97">
-        <v>1.093018365344175</v>
-      </c>
       <c r="E97">
-        <v>1.033518241319597</v>
+        <v>1.093012528368729</v>
       </c>
       <c r="F97">
-        <v>1.060892758735693</v>
+        <v>1.06824173657228</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3469,19 +3448,19 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.026855683719292</v>
+      </c>
+      <c r="C98">
         <v>1.150913580246914</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>0.9931219896706839</v>
       </c>
-      <c r="D98">
-        <v>1.094420300014019</v>
-      </c>
       <c r="E98">
-        <v>1.026855683719292</v>
+        <v>1.094414820008488</v>
       </c>
       <c r="F98">
-        <v>1.069051411191273</v>
+        <v>1.073375987543104</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3495,19 +3474,19 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.027530744621526</v>
+      </c>
+      <c r="C99">
         <v>1.181432098765432</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1.033262650631168</v>
       </c>
-      <c r="D99">
-        <v>1.100799102761811</v>
-      </c>
       <c r="E99">
-        <v>1.027530744621526</v>
+        <v>1.100798937210547</v>
       </c>
       <c r="F99">
-        <v>1.093838013106783</v>
+        <v>1.091353207757794</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3521,19 +3500,19 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.03401719937777</v>
+      </c>
+      <c r="C100">
         <v>1.183111111111111</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1.027332289915761</v>
       </c>
-      <c r="D100">
-        <v>1.11404738539184</v>
-      </c>
       <c r="E100">
-        <v>1.03401719937777</v>
+        <v>1.114046902965109</v>
       </c>
       <c r="F100">
-        <v>1.095708089936965</v>
+        <v>1.095320081280452</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3547,19 +3526,19 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.025564262862845</v>
+      </c>
+      <c r="C101">
         <v>1.166716049382716</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1.01089218620151</v>
       </c>
-      <c r="D101">
-        <v>1.097855039955138</v>
-      </c>
       <c r="E101">
-        <v>1.025564262862845</v>
+        <v>1.097846744284739</v>
       </c>
       <c r="F101">
-        <v>1.080642063201589</v>
+        <v>1.081650069199895</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3573,19 +3552,19 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.027560095095536</v>
+      </c>
+      <c r="C102">
         <v>1.167012345679012</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>0.9806695466673031</v>
       </c>
-      <c r="D102">
-        <v>1.114538062526286</v>
-      </c>
       <c r="E102">
-        <v>1.027560095095536</v>
+        <v>1.114526634315553</v>
       </c>
       <c r="F102">
-        <v>1.073851343938675</v>
+        <v>1.080191876268727</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3599,19 +3578,19 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.036482639194623</v>
+      </c>
+      <c r="C103">
         <v>1.163654320987654</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>0.9797585453973902</v>
       </c>
-      <c r="D103">
-        <v>1.135917566241413</v>
-      </c>
       <c r="E103">
-        <v>1.036482639194623</v>
+        <v>1.135911581821872</v>
       </c>
       <c r="F103">
-        <v>1.077408823013887</v>
+        <v>1.085495594243276</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3625,19 +3604,19 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.03210941856711</v>
+      </c>
+      <c r="C104">
         <v>1.158617283950617</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>0.9755672921580087</v>
       </c>
-      <c r="D104">
-        <v>1.154212813682882</v>
-      </c>
       <c r="E104">
-        <v>1.03210941856711</v>
+        <v>1.15421517796188</v>
       </c>
       <c r="F104">
-        <v>1.076610251276602</v>
+        <v>1.084675013586303</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3651,19 +3630,19 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.001350121804467</v>
+      </c>
+      <c r="C105">
         <v>1.133333333333333</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>0.9705915053980027</v>
       </c>
-      <c r="D105">
-        <v>1.079139212112716</v>
-      </c>
       <c r="E105">
-        <v>1.001350121804467</v>
+        <v>1.079137221617433</v>
       </c>
       <c r="F105">
-        <v>1.048909270211009</v>
+        <v>1.052664281371066</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3677,19 +3656,19 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.006310351912183</v>
+      </c>
+      <c r="C106">
         <v>1.13679012345679</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>0.9788513722187088</v>
       </c>
-      <c r="D106">
-        <v>1.080330856582083</v>
-      </c>
       <c r="E106">
-        <v>1.006310351912183</v>
+        <v>1.080336549993542</v>
       </c>
       <c r="F106">
-        <v>1.053825394209037</v>
+        <v>1.057052267555905</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3703,19 +3682,19 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.012180446714214</v>
+      </c>
+      <c r="C107">
         <v>1.141728395061728</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.024708048933364</v>
       </c>
-      <c r="D107">
-        <v>1.098626104023552</v>
-      </c>
       <c r="E107">
-        <v>1.012180446714214</v>
+        <v>1.098621694927764</v>
       </c>
       <c r="F107">
-        <v>1.074624391340729</v>
+        <v>1.071261129990289</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3729,19 +3708,19 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>0.9930439376595932</v>
+      </c>
+      <c r="C108">
         <v>1.142617283950617</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>1.046192225799736</v>
       </c>
-      <c r="D108">
-        <v>1.064629188279826</v>
-      </c>
       <c r="E108">
-        <v>0.9930439376595932</v>
+        <v>1.064634573869402</v>
       </c>
       <c r="F108">
-        <v>1.073249376837127</v>
+        <v>1.062985064453373</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3755,19 +3734,19 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>0.9857943705790848</v>
+      </c>
+      <c r="C109">
         <v>1.103506172839506</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1.035734865725759</v>
       </c>
-      <c r="D109">
-        <v>1.064208607878873</v>
-      </c>
       <c r="E109">
-        <v>0.9857943705790848</v>
+        <v>1.064210196136318</v>
       </c>
       <c r="F109">
-        <v>1.055235095900496</v>
+        <v>1.045818058241168</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3781,19 +3760,19 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.9784274016025359</v>
+      </c>
+      <c r="C110">
         <v>1.05679012345679</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>0.9894563952823954</v>
       </c>
-      <c r="D110">
-        <v>1.04990887424646</v>
-      </c>
       <c r="E110">
-        <v>0.9784274016025359</v>
+        <v>1.049910511651936</v>
       </c>
       <c r="F110">
-        <v>1.020504737933583</v>
+        <v>1.017901596929768</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3807,19 +3786,19 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.982037509905785</v>
+      </c>
+      <c r="C111">
         <v>1.061037037037037</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>1.01052108653389</v>
       </c>
-      <c r="D111">
-        <v>1.070867797560634</v>
-      </c>
       <c r="E111">
-        <v>0.982037509905785</v>
+        <v>1.070871081425171</v>
       </c>
       <c r="F111">
-        <v>1.032953926880735</v>
+        <v>1.027464683303434</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3833,19 +3812,19 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>0.9696809603475096</v>
+      </c>
+      <c r="C112">
         <v>1.078617283950617</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>1.032809359592988</v>
       </c>
-      <c r="D112">
-        <v>1.053624001121548</v>
-      </c>
       <c r="E112">
-        <v>0.9696809603475096</v>
+        <v>1.053619204014983</v>
       </c>
       <c r="F112">
-        <v>1.041402283851291</v>
+        <v>1.029895943217172</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3859,19 +3838,19 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>0.9600246543981686</v>
+      </c>
+      <c r="C113">
         <v>1.07358024691358</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>1.065228282028091</v>
       </c>
-      <c r="D113">
-        <v>1.044932006168512</v>
-      </c>
       <c r="E113">
-        <v>0.9600246543981686</v>
+        <v>1.044928686089636</v>
       </c>
       <c r="F113">
-        <v>1.04736046601339</v>
+        <v>1.028865763716284</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3885,19 +3864,19 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>0.9653370901940067</v>
+      </c>
+      <c r="C114">
         <v>1.079407407407407</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1.06823848467936</v>
       </c>
-      <c r="D114">
-        <v>1.050960325248844</v>
-      </c>
       <c r="E114">
-        <v>0.9653370901940067</v>
+        <v>1.050962230381755</v>
       </c>
       <c r="F114">
-        <v>1.052206292010778</v>
+        <v>1.034087173095491</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3911,19 +3890,19 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>0.9529511901617211</v>
+      </c>
+      <c r="C115">
         <v>1.096691358024692</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1.082671176758622</v>
       </c>
-      <c r="D115">
-        <v>1.014930604233843</v>
-      </c>
       <c r="E115">
-        <v>0.9529511901617211</v>
+        <v>1.014927025481115</v>
       </c>
       <c r="F115">
-        <v>1.054857046134009</v>
+        <v>1.03201525617269</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3937,19 +3916,19 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>0.9544774148102492</v>
+      </c>
+      <c r="C116">
         <v>1.089975308641975</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.117911740204111</v>
       </c>
-      <c r="D116">
-        <v>1.023762792653862</v>
-      </c>
       <c r="E116">
-        <v>0.9544774148102492</v>
+        <v>1.023765153052752</v>
       </c>
       <c r="F116">
-        <v>1.065912113437207</v>
+        <v>1.037590860274719</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3963,19 +3942,19 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>0.9716767925802002</v>
+      </c>
+      <c r="C117">
         <v>1.117333333333333</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>1.123907910311425</v>
       </c>
-      <c r="D117">
-        <v>1.044791812701528</v>
-      </c>
       <c r="E117">
-        <v>0.9716767925802002</v>
+        <v>1.044781076443346</v>
       </c>
       <c r="F117">
-        <v>1.083500263607589</v>
+        <v>1.056923792291805</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3989,25 +3968,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.117333333333333</v>
+        <v>0.9862052772152271</v>
       </c>
       <c r="C118">
-        <v>1.138427044068423</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="D118">
-        <v>1.044791812701528</v>
+        <v>1.138426987772964</v>
       </c>
       <c r="E118">
-        <v>0.9716767925802002</v>
+        <v>1.053194826281898</v>
       </c>
       <c r="F118">
-        <v>1.088291577747398</v>
+        <v>1.062714060238896</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9725573068005049</v>
+      </c>
+      <c r="C119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="D119">
+        <v>1.169976708316675</v>
+      </c>
+      <c r="E119">
+        <v>1.031828329981364</v>
+      </c>
+      <c r="F119">
+        <v>1.054897686001719</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9734378210208096</v>
+      </c>
+      <c r="C120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="D120">
+        <v>1.184750381992839</v>
+      </c>
+      <c r="E120">
+        <v>1.040648006347215</v>
+      </c>
+      <c r="F120">
+        <v>1.065087000630592</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.9803645328872062</v>
+      </c>
+      <c r="C121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="D121">
+        <v>1.147442677430058</v>
+      </c>
+      <c r="E121">
+        <v>1.053766813661273</v>
+      </c>
+      <c r="F121">
+        <v>1.056899803508016</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9532153444278125</v>
+      </c>
+      <c r="C122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="D122">
+        <v>1.132532487265123</v>
+      </c>
+      <c r="E122">
+        <v>1.011919478937949</v>
+      </c>
+      <c r="F122">
+        <v>1.042801865603037</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9479322591059846</v>
+      </c>
+      <c r="C123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="D123">
+        <v>1.151187676563671</v>
+      </c>
+      <c r="E123">
+        <v>1.02053619204015</v>
+      </c>
+      <c r="F123">
+        <v>1.062095110119369</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9433829356344106</v>
+      </c>
+      <c r="C124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="D124">
+        <v>1.128655109358996</v>
+      </c>
+      <c r="E124">
+        <v>1.019410668487186</v>
+      </c>
+      <c r="F124">
+        <v>1.060295125534394</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9463473335094362</v>
+      </c>
+      <c r="C125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="D125">
+        <v>1.18879324040154</v>
+      </c>
+      <c r="E125">
+        <v>1.032732439064893</v>
+      </c>
+      <c r="F125">
+        <v>1.085124645319985</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9301458718558304</v>
+      </c>
+      <c r="C126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="D126">
+        <v>1.200642730888226</v>
+      </c>
+      <c r="E126">
+        <v>1.016956658117608</v>
+      </c>
+      <c r="F126">
+        <v>1.080532754876204</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9139150597282146</v>
+      </c>
+      <c r="C127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="D127">
+        <v>1.208409224303741</v>
+      </c>
+      <c r="E127">
+        <v>0.9822683912393675</v>
+      </c>
+      <c r="F127">
+        <v>1.093028482427761</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4119,18 +4332,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4162,172 +4375,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.165</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J3">
-        <v>48.82</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K3">
-        <v>4.98</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L3">
-        <v>15.45</v>
-      </c>
-      <c r="M3">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>0.165</v>
+        <v>0.33</v>
       </c>
       <c r="J4">
-        <v>55.84</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K4">
-        <v>14.11</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L4">
-        <v>6.87</v>
-      </c>
-      <c r="M4">
-        <v>12.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>44.9032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0.165</v>
       </c>
       <c r="J5">
-        <v>41.16</v>
+        <v>13.56060028076172</v>
       </c>
       <c r="K5">
-        <v>9.26</v>
+        <v>51.59040069580078</v>
       </c>
       <c r="L5">
-        <v>13.51</v>
-      </c>
-      <c r="M5">
-        <v>21.13</v>
+        <v>12.1321</v>
       </c>
     </row>
   </sheetData>
@@ -4345,19 +4543,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4365,19 +4563,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4385,19 +4583,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4405,19 +4603,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4425,19 +4623,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4445,19 +4643,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4465,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4485,19 +4683,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4505,19 +4703,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4525,19 +4723,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4545,19 +4743,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4565,19 +4763,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4585,19 +4783,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4605,19 +4803,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4625,19 +4823,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4645,19 +4843,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4665,19 +4863,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4685,19 +4883,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4705,19 +4903,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4725,19 +4923,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4745,19 +4943,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +4962,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4775,21 +4970,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4797,54 +4992,32 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
